--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/JGHY_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/JGHY_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003331128376919287</v>
+        <v>0.0003212050085607517</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002448679516019459</v>
+        <v>0.0001305929450261533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005866011857536865</v>
+        <v>0.005618841394863227</v>
       </c>
       <c r="D2" t="n">
-        <v>3.44100951127631e-05</v>
+        <v>3.157137862062853e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01501846226062187</v>
+        <v>-0.02097122929958295</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003600866681817333</v>
+        <v>-0.003373260393657373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002448679516019459</v>
+        <v>0.0001305929450261533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004303478060471877</v>
+        <v>0.003992906949449537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02126969196785411</v>
+        <v>0.01917818003330707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0003868090240408997</v>
+        <v>0.0003331128376919287</v>
       </c>
       <c r="B3" t="n">
-        <v>6.715624435804646e-05</v>
+        <v>0.0002448679516019459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005811065633161589</v>
+        <v>0.005866011857536865</v>
       </c>
       <c r="D3" t="n">
-        <v>3.37684837929117e-05</v>
+        <v>3.44100951127631e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01624045545807362</v>
+        <v>-0.01501846226062187</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003325092030568716</v>
+        <v>-0.003600866681817333</v>
       </c>
       <c r="G3" t="n">
-        <v>6.715624435804646e-05</v>
+        <v>0.0002448679516019459</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004186809907240852</v>
+        <v>0.004303478060471877</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01788123479651271</v>
+        <v>0.02126969196785411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.000308991520901973</v>
+        <v>0.0003868090240408997</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0002562962522445478</v>
+        <v>6.715624435804646e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005674845832986926</v>
+        <v>0.005811065633161589</v>
       </c>
       <c r="D4" t="n">
-        <v>3.220387522816907e-05</v>
+        <v>3.37684837929117e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01805740259432498</v>
+        <v>-0.01624045545807362</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003659045297091019</v>
+        <v>-0.003325092030568716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002562962522445478</v>
+        <v>6.715624435804646e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00411212067027461</v>
+        <v>0.004186809907240852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01790704559982648</v>
+        <v>0.01788123479651271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.413483067056394e-05</v>
+        <v>0.000308991520901973</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.9470719211101e-05</v>
+        <v>0.0002562962522445478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005780142061234056</v>
+        <v>0.005674845832986926</v>
       </c>
       <c r="D5" t="n">
-        <v>3.341004224804709e-05</v>
+        <v>3.220387522816908e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0189979202236521</v>
+        <v>-0.01805740259432498</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.003661847262647483</v>
+        <v>-0.003659045297091019</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.9470719211101e-05</v>
+        <v>0.0002562962522445478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003895315022917011</v>
+        <v>0.00411212067027461</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01777802763917768</v>
+        <v>0.01790704559982648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0001264507631363365</v>
+        <v>9.413483067056394e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>6.967566406745895e-05</v>
+        <v>-1.9470719211101e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005675285397371808</v>
+        <v>0.005780142061234056</v>
       </c>
       <c r="D6" t="n">
-        <v>3.220886434162167e-05</v>
+        <v>3.341004224804709e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01950197682134969</v>
+        <v>-0.0189979202236521</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003860569578173795</v>
+        <v>-0.003661847262647483</v>
       </c>
       <c r="G6" t="n">
-        <v>6.967566406745895e-05</v>
+        <v>-1.9470719211101e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003799098665242917</v>
+        <v>0.003895315022917011</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01787943136816406</v>
+        <v>0.01777802763917768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.221520176295391e-05</v>
+        <v>-0.0001264507631363365</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0002085962329122504</v>
+        <v>6.967566406745895e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00580303446557816</v>
+        <v>0.005675285397371808</v>
       </c>
       <c r="D7" t="n">
-        <v>3.367520900868799e-05</v>
+        <v>3.220886434162167e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01610495011075352</v>
+        <v>-0.01950197682134969</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.004237514162529266</v>
+        <v>-0.003860569578173795</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0002085962329122504</v>
+        <v>6.967566406745895e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004240480993640994</v>
+        <v>0.003799098665242917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02012361084927039</v>
+        <v>0.01787943136816406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.599316733780476e-06</v>
+        <v>5.221520176295391e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0001657319134066304</v>
+        <v>-0.0002085962329122504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005814236685085751</v>
+        <v>0.00580303446557816</v>
       </c>
       <c r="D8" t="n">
-        <v>3.380534823019694e-05</v>
+        <v>3.3675209008688e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01694171493736474</v>
+        <v>-0.01610495011075352</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.003854256638775755</v>
+        <v>-0.004237514162529266</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0001657319134066304</v>
+        <v>-0.0002085962329122504</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003858115525688988</v>
+        <v>0.004240480993640994</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01841629550592594</v>
+        <v>0.02012361084927039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0003193870134519722</v>
+        <v>8.599316733780476e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0002460933135975951</v>
+        <v>-0.0001657319134066304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005841906614821419</v>
+        <v>0.005814236685085751</v>
       </c>
       <c r="D9" t="n">
-        <v>3.412787289629425e-05</v>
+        <v>3.380534823019694e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01886967097090009</v>
+        <v>-0.01694171493736474</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003443512686045758</v>
+        <v>-0.003854256638775755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002460933135975951</v>
+        <v>-0.0001657319134066304</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004351283445653664</v>
+        <v>0.003858115525688988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01827485827705044</v>
+        <v>0.01841629550592594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0.0003193870134519722</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0002460933135975951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005841906614821419</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.412787289629426e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.01886967097090009</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.003443512686045758</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0002460933135975951</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.004351283445653664</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01827485827705044</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0.0002426697363838122</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>0.000419969222495431</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.005811696971264456</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>3.377582168580445e-05</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.01944527505701632</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.003792714839503664</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.000419969222495431</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.004032045205496826</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.01882227909538758</v>
       </c>
     </row>
